--- a/Project_CSD/Assets/Temp/DataBase/PlayerInfoDB.xlsx
+++ b/Project_CSD/Assets/Temp/DataBase/PlayerInfoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCHALE\Documents\GitHub\Capstone-Design\Project_CSD\Assets\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCHALE\Documents\GitHub\Capstone-Design\Project_CSD\Assets\Temp\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB9716-FE5D-44D9-9678-E50108876FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263660EB-6C7B-43E8-BB24-E5CCDC2D2544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,11 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acount</t>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
